--- a/Result/1.5_1_offsetPixelvsBB_res0.5.xlsx
+++ b/Result/1.5_1_offsetPixelvsBB_res0.5.xlsx
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="D601" sqref="D601"/>
+    <sheetView tabSelected="1" topLeftCell="A587" workbookViewId="0">
+      <selection activeCell="D602" sqref="D602"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,6 +431,9 @@
       <c r="A8">
         <v>6</v>
       </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
@@ -489,6 +492,9 @@
       <c r="A19">
         <v>17</v>
       </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -648,6 +654,9 @@
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
@@ -679,9 +688,6 @@
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52">
@@ -777,6 +783,9 @@
       <c r="C67">
         <v>1</v>
       </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
@@ -873,6 +882,9 @@
       <c r="A82">
         <v>80</v>
       </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
       <c r="D82">
         <v>1</v>
       </c>
@@ -889,6 +901,9 @@
       <c r="A84">
         <v>82</v>
       </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
       <c r="D84">
         <v>1</v>
       </c>
@@ -958,6 +973,9 @@
       <c r="A96">
         <v>94</v>
       </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
@@ -1016,11 +1034,17 @@
       <c r="A107">
         <v>105</v>
       </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
@@ -1107,6 +1131,9 @@
       <c r="A124">
         <v>122</v>
       </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125">
@@ -1204,6 +1231,9 @@
       <c r="A141">
         <v>139</v>
       </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
       <c r="D141">
         <v>1</v>
       </c>
@@ -1223,22 +1253,22 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -1246,40 +1276,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
-      <c r="D152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -1287,12 +1317,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -1300,17 +1330,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -1332,6 +1362,9 @@
       <c r="A163">
         <v>161</v>
       </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
       <c r="D163">
         <v>1</v>
       </c>
@@ -1380,6 +1413,9 @@
       <c r="A172">
         <v>170</v>
       </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173">
@@ -1441,6 +1477,9 @@
       <c r="A183">
         <v>181</v>
       </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184">
@@ -1567,6 +1606,9 @@
       <c r="A207">
         <v>205</v>
       </c>
+      <c r="C207">
+        <v>1</v>
+      </c>
       <c r="D207">
         <v>1</v>
       </c>
@@ -1785,6 +1827,9 @@
       <c r="A247">
         <v>245</v>
       </c>
+      <c r="C247">
+        <v>1</v>
+      </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248">
@@ -1818,6 +1863,9 @@
       <c r="A253">
         <v>251</v>
       </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
       <c r="D253">
         <v>1</v>
       </c>
@@ -1892,6 +1940,9 @@
       <c r="A266">
         <v>264</v>
       </c>
+      <c r="C266">
+        <v>1</v>
+      </c>
       <c r="D266">
         <v>1</v>
       </c>
@@ -1961,6 +2012,9 @@
       <c r="A278">
         <v>276</v>
       </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279">
@@ -1976,6 +2030,9 @@
       <c r="A281">
         <v>279</v>
       </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282">
@@ -2103,83 +2160,89 @@
       <c r="A304">
         <v>302</v>
       </c>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="D304">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>303</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>304</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>305</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>306</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>307</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>308</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>309</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>310</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>311</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>312</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>314</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>315</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>316</v>
       </c>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>317</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>318</v>
       </c>
@@ -2259,6 +2322,9 @@
       <c r="A334">
         <v>332</v>
       </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
       <c r="D334">
         <v>1</v>
       </c>
@@ -2318,6 +2384,9 @@
       <c r="A344">
         <v>342</v>
       </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345">
@@ -2359,82 +2428,91 @@
         <v>350</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>351</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>352</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>353</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>354</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>355</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>356</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>357</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>358</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>359</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>360</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>361</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>362</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>363</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>364</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>365</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>366</v>
       </c>
@@ -2522,6 +2600,9 @@
       <c r="A383">
         <v>381</v>
       </c>
+      <c r="C383">
+        <v>1</v>
+      </c>
       <c r="D383">
         <v>1</v>
       </c>
@@ -2795,22 +2876,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>431</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>432</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>433</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>434</v>
       </c>
@@ -2818,12 +2899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>435</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>436</v>
       </c>
@@ -2831,37 +2912,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>438</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>439</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>440</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>441</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>442</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>443</v>
       </c>
@@ -2869,17 +2950,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>444</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>445</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D447">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>446</v>
       </c>
@@ -2909,6 +2993,12 @@
       <c r="A452">
         <v>450</v>
       </c>
+      <c r="C452">
+        <v>1</v>
+      </c>
+      <c r="D452">
+        <v>1</v>
+      </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A453">
@@ -2942,6 +3032,9 @@
       <c r="A458">
         <v>456</v>
       </c>
+      <c r="D458">
+        <v>1</v>
+      </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A459">
@@ -3091,11 +3184,17 @@
       <c r="A486">
         <v>484</v>
       </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>485</v>
       </c>
+      <c r="C487">
+        <v>1</v>
+      </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A488">
@@ -3121,6 +3220,9 @@
       <c r="A492">
         <v>490</v>
       </c>
+      <c r="D492">
+        <v>1</v>
+      </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A493">
@@ -3170,6 +3272,9 @@
       <c r="A500">
         <v>498</v>
       </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A501">
@@ -3238,6 +3343,9 @@
       <c r="A513">
         <v>511</v>
       </c>
+      <c r="B513">
+        <v>1</v>
+      </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A514">
@@ -3263,6 +3371,9 @@
       <c r="A518">
         <v>516</v>
       </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
       <c r="D518">
         <v>1</v>
       </c>
@@ -3271,6 +3382,9 @@
       <c r="A519">
         <v>517</v>
       </c>
+      <c r="C519">
+        <v>1</v>
+      </c>
       <c r="D519">
         <v>1</v>
       </c>
@@ -3340,6 +3454,9 @@
       <c r="A531">
         <v>529</v>
       </c>
+      <c r="C531">
+        <v>1</v>
+      </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A532">
@@ -3388,6 +3505,9 @@
       <c r="A540">
         <v>538</v>
       </c>
+      <c r="C540">
+        <v>1</v>
+      </c>
       <c r="D540">
         <v>1</v>
       </c>
@@ -3470,6 +3590,9 @@
       <c r="A554">
         <v>552</v>
       </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A555">
@@ -3534,6 +3657,9 @@
       <c r="A565">
         <v>563</v>
       </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A566">
@@ -3642,6 +3768,9 @@
       <c r="A583">
         <v>581</v>
       </c>
+      <c r="C583">
+        <v>1</v>
+      </c>
       <c r="D583">
         <v>1</v>
       </c>
@@ -3751,21 +3880,21 @@
     <row r="602" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B602">
         <f>SUM(B2:B600)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C602">
         <f>SUM(C2:C600)</f>
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D602">
-        <f>SUM(D2:D599)</f>
-        <v>62</v>
+        <f>SUM(D2:D600)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="1048576" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B1048576">
         <f>SUM(B11:B1048575)</f>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
